--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 28,6</t>
+          <t>9,36; 27,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 26,12</t>
+          <t>8,05; 26,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 24,5</t>
+          <t>11,07; 24,25</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 16,66</t>
+          <t>6,09; 16,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,22</t>
+          <t>5,18; 16,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,95</t>
+          <t>6,79; 14,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,92</t>
+          <t>6,9; 14,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,16</t>
+          <t>1,8; 7,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,7</t>
+          <t>5,43; 10,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,98</t>
+          <t>5,83; 11,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,72</t>
+          <t>2,65; 7,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,27</t>
+          <t>5,37; 9,18</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,56</t>
+          <t>6,08; 12,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,13</t>
+          <t>2,37; 7,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 10,15</t>
+          <t>5,21; 9,8</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,95</t>
+          <t>4,31; 9,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,61</t>
+          <t>0,48; 8,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,63</t>
+          <t>2,46; 7,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,39</t>
+          <t>8,01; 11,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,35</t>
+          <t>4,02; 8,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,68</t>
+          <t>6,92; 9,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 27,88</t>
+          <t>9,9; 28,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 26,19</t>
+          <t>8,43; 26,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 24,25</t>
+          <t>11,49; 24,5</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,34</t>
+          <t>6,17; 16,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 16,75</t>
+          <t>5,05; 16,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,52</t>
+          <t>6,81; 14,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,31</t>
+          <t>6,76; 13,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,57</t>
+          <t>1,65; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,39</t>
+          <t>5,45; 10,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,56</t>
+          <t>5,84; 11,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,81</t>
+          <t>2,74; 7,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,18</t>
+          <t>5,24; 9,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,54</t>
+          <t>6,0; 12,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,83</t>
+          <t>2,36; 8,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,8</t>
+          <t>5,35; 10,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,17</t>
+          <t>4,35; 8,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,7</t>
+          <t>0,44; 8,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,63</t>
+          <t>2,55; 7,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 11,23</t>
+          <t>7,98; 11,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,31</t>
+          <t>4,29; 8,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,69</t>
+          <t>6,92; 9,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,14%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 28,6</t>
+          <t>8,49; 25,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 26,12</t>
+          <t>8,25; 25,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 24,5</t>
+          <t>10,19; 22,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 16,66</t>
+          <t>5,91; 16,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,22</t>
+          <t>4,93; 16,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,95</t>
+          <t>6,81; 14,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,92</t>
+          <t>6,44; 13,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,16</t>
+          <t>1,61; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,7</t>
+          <t>5,32; 10,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,98</t>
+          <t>5,56; 11,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,72</t>
+          <t>2,73; 7,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,27</t>
+          <t>5,04; 8,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,56</t>
+          <t>5,96; 12,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,13</t>
+          <t>2,25; 7,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 10,15</t>
+          <t>5,21; 9,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,95</t>
+          <t>4,34; 10,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,61</t>
+          <t>0,06; 5,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,63</t>
+          <t>1,18; 7,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,39</t>
+          <t>2,43; 9,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,35</t>
+          <t>0,0; 20,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,68</t>
+          <t>2,43; 9,71</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 10,93</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 7,45</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 9,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 25,28</t>
+          <t>8,75; 24,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 25,69</t>
+          <t>7,85; 26,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 22,95</t>
+          <t>10,12; 22,58</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,36</t>
+          <t>6,05; 16,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 16,0</t>
+          <t>5,02; 16,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,61</t>
+          <t>6,46; 14,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,41</t>
+          <t>6,34; 13,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,82</t>
+          <t>1,71; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,46</t>
+          <t>5,27; 10,08</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,57</t>
+          <t>5,56; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,6</t>
+          <t>2,69; 7,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,98</t>
+          <t>4,88; 9,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,41</t>
+          <t>6,09; 12,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,88</t>
+          <t>2,5; 8,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,96</t>
+          <t>5,11; 9,65</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,48</t>
+          <t>4,53; 10,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,81</t>
+          <t>0,04; 5,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,15</t>
+          <t>1,11; 7,09</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,93</t>
+          <t>2,31; 10,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,87</t>
+          <t>0,0; 24,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,71</t>
+          <t>2,61; 10,24</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,93</t>
+          <t>7,81; 10,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,45</t>
+          <t>2,74; 7,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,06</t>
+          <t>5,78; 8,91</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25643</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15352</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14866; 42283</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7915; 26897</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27393; 61142</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22964</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13816; 36581</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7146; 23646</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23933; 52325</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26856</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5453</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32309</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17890; 38700</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2574; 10706</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22833; 43636</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27589</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9037</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36626</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19098; 39948</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5099; 14907</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25990; 48990</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22717</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6117</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15938; 31770</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3339; 10768</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20177; 38130</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3478</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16727</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8486; 19901</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>113; 15778</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5173; 33149</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2275; 10079</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6632</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3269; 12839</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>54715</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>198824</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>122651; 171136</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>28096; 76684</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>149926; 231208</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>